--- a/Matlab Onboarding/Project Timeline.xlsx
+++ b/Matlab Onboarding/Project Timeline.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o365coloradoedu-my.sharepoint.com/personal/jefo6893_colorado_edu/Documents/Projects/Annie Thompson/Git Repository/Matlab/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o365coloradoedu-my.sharepoint.com/personal/jefo6893_colorado_edu/Documents/Projects/Annie Thompson/Git Repository/Matlab Onboarding/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="120" documentId="8_{75319BF0-BFD0-584D-8D56-A62B1235F80B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE518DBE-9F35-9E4A-A96E-DFD68A609420}"/>
+  <xr:revisionPtr revIDLastSave="290" documentId="8_{75319BF0-BFD0-584D-8D56-A62B1235F80B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C18D4387-C46B-C342-BD9B-070874006692}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25220" windowHeight="16100" xr2:uid="{D460F1A5-C0E8-864A-9EC7-AAE9E9678062}"/>
+    <workbookView xWindow="13560" yWindow="500" windowWidth="15240" windowHeight="16100" xr2:uid="{D460F1A5-C0E8-864A-9EC7-AAE9E9678062}"/>
   </bookViews>
   <sheets>
-    <sheet name="Fox" sheetId="1" r:id="rId1"/>
-    <sheet name="Shirts" sheetId="2" r:id="rId2"/>
+    <sheet name="Timeline" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="68">
   <si>
     <t>Category</t>
   </si>
@@ -177,45 +176,6 @@
     <t>Find redundancies and functions that take the most time (vectorize nested loops)</t>
   </si>
   <si>
-    <t>Onboarding</t>
-  </si>
-  <si>
-    <t>Gromacs</t>
-  </si>
-  <si>
-    <t>Tutorials</t>
-  </si>
-  <si>
-    <t>High performance computing</t>
-  </si>
-  <si>
-    <t>Github</t>
-  </si>
-  <si>
-    <t>Compile</t>
-  </si>
-  <si>
-    <t>Alpine</t>
-  </si>
-  <si>
-    <t>Software</t>
-  </si>
-  <si>
-    <t>VMD</t>
-  </si>
-  <si>
-    <t>Pymol</t>
-  </si>
-  <si>
-    <t>Globus</t>
-  </si>
-  <si>
-    <t>Overleaf (website)</t>
-  </si>
-  <si>
-    <t>Slurm</t>
-  </si>
-  <si>
     <t>3: MD</t>
   </si>
   <si>
@@ -235,6 +195,51 @@
   </si>
   <si>
     <t>Figure out differences between model and experiment</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>Summer 2024:</t>
+  </si>
+  <si>
+    <t>Spring 2024:</t>
+  </si>
+  <si>
+    <t>1A: P. putida FabG</t>
+  </si>
+  <si>
+    <t>1B: ACC</t>
+  </si>
+  <si>
+    <t>1C: Optimize code</t>
+  </si>
+  <si>
+    <t>2: KS Mutants</t>
+  </si>
+  <si>
+    <t>2A: Run simulations</t>
+  </si>
+  <si>
+    <t>3: B5 Modeling Effort</t>
+  </si>
+  <si>
+    <t>3A: Model of Pennycress FAS</t>
+  </si>
+  <si>
+    <t>3B: Analysis of interesting phenomena</t>
+  </si>
+  <si>
+    <t>Product profile email thread - acyl-ACP concentrations same but product profiles different</t>
   </si>
 </sst>
 </file>
@@ -291,7 +296,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="93">
+  <borders count="189">
     <border>
       <left/>
       <right/>
@@ -1122,21 +1127,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1507,13 +1497,1276 @@
       <bottom style="thick">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thick">
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="4"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="4"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1"/>
+      </left>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top style="thick">
+        <color theme="1"/>
+      </top>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color theme="1"/>
+      </top>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thick">
+        <color theme="1"/>
+      </top>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color theme="1"/>
+      </top>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top style="thick">
+        <color theme="1"/>
+      </top>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color theme="1"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color theme="1"/>
+      </top>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1"/>
+      </left>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1"/>
+      </left>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1"/>
+      </left>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1"/>
+      </left>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1"/>
+      </left>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1"/>
+      </left>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1"/>
+      </left>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1"/>
+      </left>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thick">
+        <color theme="1"/>
+      </top>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="4"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thick">
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thick">
+        <color theme="4"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thick">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thick">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thick">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4"/>
+      </left>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4"/>
+      </left>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4"/>
+      </left>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4"/>
+      </left>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4"/>
+      </left>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1"/>
+      </left>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thick">
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4"/>
+      </left>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1"/>
+      </left>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thick">
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4"/>
+      </left>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4"/>
+      </left>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1"/>
+      </left>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top style="thick">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="4"/>
+      </right>
+      <top style="thick">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thick">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="4"/>
+      </right>
+      <top style="thick">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thick">
+        <color theme="4"/>
+      </right>
+      <top style="thick">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4"/>
+      </left>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top style="thick">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="4"/>
+      </right>
+      <top style="thick">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top style="thick">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1"/>
+      </left>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top style="thick">
+        <color theme="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="182">
+  <cellXfs count="316">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1632,9 +2885,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1701,9 +2951,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="4"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1731,306 +2978,285 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="65" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="78" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="79" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="80" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="81" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="75" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="76" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="74" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="82" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="82" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="89" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="90" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="67" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="65" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="78" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="80" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="81" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="82" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="76" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="77" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="75" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="83" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="89" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="90" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="91" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2049,14 +3275,443 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="89" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="91" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="93" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="94" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="95" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="97" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="98" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="99" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="100" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="101" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="102" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="103" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="104" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="105" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="106" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="107" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="113" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="114" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="115" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="116" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="117" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="118" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="119" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="120" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="121" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="122" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="123" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="108" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="125" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="124" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="126" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="127" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="128" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="129" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="124" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="108" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="128" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="130" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="129" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="131" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="128" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="130" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="129" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="131" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="132" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="124" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="133" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="134" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="135" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="136" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="137" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="138" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="123" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="139" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="140" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="141" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="142" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="143" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="144" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="145" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="146" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="147" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="148" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="123" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="149" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="150" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="151" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="152" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="151" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="152" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="153" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="125" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="127" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="127" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="154" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="127" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="155" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="156" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="157" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="158" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="159" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="160" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="161" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="162" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="154" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="163" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="164" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="154" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="124" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="126" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="126" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="166" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="167" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="168" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="169" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="170" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="171" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="165" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="165" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="172" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="173" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="174" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="175" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="176" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="177" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="178" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="165" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="179" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="179" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="180" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="181" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="182" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="183" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="184" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="185" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="186" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="187" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="165" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="126" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="154" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="188" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="126" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2372,369 +4027,363 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{055938A9-96C9-E447-83D3-A2A6EB8FF9B5}">
-  <dimension ref="A1:Y43"/>
+  <dimension ref="A1:Y61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="C37" zoomScale="89" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="57"/>
-    <col min="2" max="2" width="20.83203125" style="58" customWidth="1"/>
-    <col min="3" max="3" width="40.83203125" style="59" customWidth="1"/>
-    <col min="4" max="4" width="77.5" style="60" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.83203125" style="57"/>
-    <col min="7" max="24" width="2.83203125" style="57" customWidth="1"/>
-    <col min="25" max="16384" width="10.83203125" style="57"/>
+    <col min="1" max="1" width="10.83203125" style="56"/>
+    <col min="2" max="2" width="20.83203125" style="57" customWidth="1"/>
+    <col min="3" max="3" width="40.83203125" style="58" customWidth="1"/>
+    <col min="4" max="4" width="77.5" style="59" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.83203125" style="56"/>
+    <col min="7" max="24" width="2.83203125" style="56" customWidth="1"/>
+    <col min="25" max="16384" width="10.83203125" style="56"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="66"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
-      <c r="W1" s="69"/>
-      <c r="X1" s="69"/>
-    </row>
-    <row r="2" spans="1:25" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64"/>
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="B1" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="65"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
+      <c r="W1" s="67"/>
+      <c r="X1" s="67"/>
+    </row>
+    <row r="2" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="64"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67"/>
+      <c r="R2" s="67"/>
+      <c r="S2" s="67"/>
+      <c r="T2" s="67"/>
+      <c r="U2" s="67"/>
+      <c r="V2" s="67"/>
+      <c r="W2" s="67"/>
+      <c r="X2" s="67"/>
+    </row>
+    <row r="3" spans="1:25" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="62"/>
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="175" t="s">
+      <c r="G3" s="166" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
-      <c r="J2" s="176"/>
-      <c r="K2" s="177"/>
-      <c r="L2" s="165" t="s">
+      <c r="H3" s="167"/>
+      <c r="I3" s="167"/>
+      <c r="J3" s="167"/>
+      <c r="K3" s="168"/>
+      <c r="L3" s="156" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="165"/>
-      <c r="N2" s="165"/>
-      <c r="O2" s="166"/>
-      <c r="P2" s="165" t="s">
+      <c r="M3" s="156"/>
+      <c r="N3" s="156"/>
+      <c r="O3" s="157"/>
+      <c r="P3" s="156" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="165"/>
-      <c r="R2" s="165"/>
-      <c r="S2" s="166"/>
-      <c r="T2" s="165" t="s">
+      <c r="Q3" s="156"/>
+      <c r="R3" s="156"/>
+      <c r="S3" s="157"/>
+      <c r="T3" s="156" t="s">
         <v>7</v>
       </c>
-      <c r="U2" s="165"/>
-      <c r="V2" s="165"/>
-      <c r="W2" s="165"/>
-      <c r="X2" s="167"/>
-      <c r="Y2" s="65"/>
-    </row>
-    <row r="3" spans="1:25" ht="19" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="64"/>
-      <c r="B3" s="171" t="s">
+      <c r="U3" s="156"/>
+      <c r="V3" s="156"/>
+      <c r="W3" s="156"/>
+      <c r="X3" s="158"/>
+      <c r="Y3" s="63"/>
+    </row>
+    <row r="4" spans="1:25" ht="19" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="62"/>
+      <c r="B4" s="162" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C4" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22" t="s">
+      <c r="D4" s="13"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="77"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="79"/>
-      <c r="M3" s="77"/>
-      <c r="N3" s="78"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="79"/>
-      <c r="Q3" s="77"/>
-      <c r="R3" s="78"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="80"/>
-      <c r="U3" s="77"/>
-      <c r="V3" s="78"/>
-      <c r="W3" s="77"/>
-      <c r="X3" s="81"/>
-      <c r="Y3" s="65"/>
-    </row>
-    <row r="4" spans="1:25" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="64"/>
-      <c r="B4" s="171"/>
-      <c r="C4" s="38" t="s">
+      <c r="G4" s="71"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="71"/>
+      <c r="N4" s="72"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="71"/>
+      <c r="R4" s="72"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="74"/>
+      <c r="U4" s="71"/>
+      <c r="V4" s="72"/>
+      <c r="W4" s="71"/>
+      <c r="X4" s="75"/>
+      <c r="Y4" s="63"/>
+    </row>
+    <row r="5" spans="1:25" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="62"/>
+      <c r="B5" s="162"/>
+      <c r="C5" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E5" s="23">
         <v>45313</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="F5" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="101"/>
-      <c r="M4" s="99"/>
-      <c r="N4" s="100"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="101"/>
-      <c r="Q4" s="99"/>
-      <c r="R4" s="100"/>
-      <c r="S4" s="33"/>
-      <c r="T4" s="102"/>
-      <c r="U4" s="99"/>
-      <c r="V4" s="100"/>
-      <c r="W4" s="99"/>
-      <c r="X4" s="103"/>
-      <c r="Y4" s="65"/>
-    </row>
-    <row r="5" spans="1:25" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="64"/>
-      <c r="B5" s="171"/>
-      <c r="C5" s="168" t="s">
+      <c r="G5" s="5"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="95"/>
+      <c r="M5" s="93"/>
+      <c r="N5" s="94"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="95"/>
+      <c r="Q5" s="93"/>
+      <c r="R5" s="94"/>
+      <c r="S5" s="33"/>
+      <c r="T5" s="96"/>
+      <c r="U5" s="93"/>
+      <c r="V5" s="94"/>
+      <c r="W5" s="93"/>
+      <c r="X5" s="97"/>
+      <c r="Y5" s="63"/>
+    </row>
+    <row r="6" spans="1:25" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="62"/>
+      <c r="B6" s="162"/>
+      <c r="C6" s="159" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D6" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E6" s="24">
         <v>45327</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="F6" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="84"/>
-      <c r="M5" s="82"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="83"/>
-      <c r="S5" s="34"/>
-      <c r="T5" s="85"/>
-      <c r="U5" s="82"/>
-      <c r="V5" s="83"/>
-      <c r="W5" s="82"/>
-      <c r="X5" s="86"/>
-      <c r="Y5" s="65"/>
-    </row>
-    <row r="6" spans="1:25" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="64"/>
-      <c r="B6" s="171"/>
-      <c r="C6" s="169"/>
-      <c r="D6" s="16" t="s">
+      <c r="G6" s="6"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="78"/>
+      <c r="M6" s="76"/>
+      <c r="N6" s="77"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="78"/>
+      <c r="Q6" s="76"/>
+      <c r="R6" s="77"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="79"/>
+      <c r="U6" s="76"/>
+      <c r="V6" s="77"/>
+      <c r="W6" s="76"/>
+      <c r="X6" s="80"/>
+      <c r="Y6" s="63"/>
+    </row>
+    <row r="7" spans="1:25" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="62"/>
+      <c r="B7" s="162"/>
+      <c r="C7" s="160"/>
+      <c r="D7" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E7" s="25">
         <v>45327</v>
       </c>
-      <c r="F6" s="32" t="s">
+      <c r="F7" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="109"/>
-      <c r="L6" s="106"/>
-      <c r="M6" s="104"/>
-      <c r="N6" s="105"/>
-      <c r="O6" s="32"/>
-      <c r="P6" s="106"/>
-      <c r="Q6" s="104"/>
-      <c r="R6" s="105"/>
-      <c r="S6" s="32"/>
-      <c r="T6" s="107"/>
-      <c r="U6" s="104"/>
-      <c r="V6" s="105"/>
-      <c r="W6" s="104"/>
-      <c r="X6" s="108"/>
-      <c r="Y6" s="65"/>
-    </row>
-    <row r="7" spans="1:25" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="64"/>
-      <c r="B7" s="171"/>
-      <c r="C7" s="169"/>
-      <c r="D7" s="125" t="s">
+      <c r="G7" s="7"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="100"/>
+      <c r="M7" s="98"/>
+      <c r="N7" s="99"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="100"/>
+      <c r="Q7" s="98"/>
+      <c r="R7" s="99"/>
+      <c r="S7" s="32"/>
+      <c r="T7" s="101"/>
+      <c r="U7" s="98"/>
+      <c r="V7" s="99"/>
+      <c r="W7" s="98"/>
+      <c r="X7" s="102"/>
+      <c r="Y7" s="63"/>
+    </row>
+    <row r="8" spans="1:25" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="62"/>
+      <c r="B8" s="162"/>
+      <c r="C8" s="160"/>
+      <c r="D8" s="116" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="126">
+      <c r="E8" s="117">
         <v>45362</v>
       </c>
-      <c r="F7" s="127" t="s">
+      <c r="F8" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="128"/>
-      <c r="H7" s="129"/>
-      <c r="I7" s="128"/>
-      <c r="J7" s="129"/>
-      <c r="K7" s="130"/>
-      <c r="L7" s="163"/>
-      <c r="M7" s="128"/>
-      <c r="N7" s="129"/>
-      <c r="O7" s="130"/>
-      <c r="P7" s="163"/>
-      <c r="Q7" s="131"/>
-      <c r="R7" s="132"/>
-      <c r="S7" s="127"/>
-      <c r="T7" s="133"/>
-      <c r="U7" s="131"/>
-      <c r="V7" s="132"/>
-      <c r="W7" s="131"/>
-      <c r="X7" s="134"/>
-      <c r="Y7" s="65"/>
-    </row>
-    <row r="8" spans="1:25" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="64"/>
-      <c r="B8" s="171"/>
-      <c r="C8" s="170"/>
-      <c r="D8" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" s="26">
+      <c r="G8" s="119"/>
+      <c r="H8" s="120"/>
+      <c r="I8" s="119"/>
+      <c r="J8" s="120"/>
+      <c r="K8" s="121"/>
+      <c r="L8" s="153"/>
+      <c r="M8" s="119"/>
+      <c r="N8" s="120"/>
+      <c r="O8" s="121"/>
+      <c r="P8" s="153"/>
+      <c r="Q8" s="122"/>
+      <c r="R8" s="123"/>
+      <c r="S8" s="118"/>
+      <c r="T8" s="124"/>
+      <c r="U8" s="122"/>
+      <c r="V8" s="123"/>
+      <c r="W8" s="122"/>
+      <c r="X8" s="125"/>
+      <c r="Y8" s="63"/>
+    </row>
+    <row r="9" spans="1:25" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="62"/>
+      <c r="B9" s="162"/>
+      <c r="C9" s="161"/>
+      <c r="D9" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="26">
         <v>45411</v>
       </c>
-      <c r="F8" s="35" t="s">
+      <c r="F9" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="50"/>
-      <c r="P8" s="54"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="44"/>
-      <c r="S8" s="50"/>
-      <c r="T8" s="112"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="44"/>
-      <c r="W8" s="8"/>
-      <c r="X8" s="114"/>
-      <c r="Y8" s="65"/>
-    </row>
-    <row r="9" spans="1:25" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="64"/>
-      <c r="B9" s="171"/>
-      <c r="C9" s="168" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="24">
-        <v>45334</v>
-      </c>
-      <c r="F9" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="82"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="42"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="43"/>
       <c r="K9" s="49"/>
       <c r="L9" s="53"/>
-      <c r="M9" s="82"/>
-      <c r="N9" s="83"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="84"/>
-      <c r="Q9" s="82"/>
-      <c r="R9" s="83"/>
-      <c r="S9" s="34"/>
-      <c r="T9" s="85"/>
-      <c r="U9" s="82"/>
-      <c r="V9" s="83"/>
-      <c r="W9" s="82"/>
-      <c r="X9" s="86"/>
-      <c r="Y9" s="65"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="43"/>
+      <c r="O9" s="49"/>
+      <c r="P9" s="53"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="43"/>
+      <c r="S9" s="49"/>
+      <c r="T9" s="105"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="43"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="106"/>
+      <c r="Y9" s="63"/>
     </row>
     <row r="10" spans="1:25" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="64"/>
-      <c r="B10" s="171"/>
-      <c r="C10" s="169"/>
-      <c r="D10" s="16" t="s">
+      <c r="A10" s="62"/>
+      <c r="B10" s="162"/>
+      <c r="C10" s="159" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="24">
+        <v>45334</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="76"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="76"/>
+      <c r="N10" s="77"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="78"/>
+      <c r="Q10" s="76"/>
+      <c r="R10" s="77"/>
+      <c r="S10" s="34"/>
+      <c r="T10" s="79"/>
+      <c r="U10" s="76"/>
+      <c r="V10" s="77"/>
+      <c r="W10" s="76"/>
+      <c r="X10" s="80"/>
+      <c r="Y10" s="63"/>
+    </row>
+    <row r="11" spans="1:25" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="62"/>
+      <c r="B11" s="162"/>
+      <c r="C11" s="160"/>
+      <c r="D11" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="E10" s="25">
-        <v>45411</v>
-      </c>
-      <c r="F10" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="104"/>
-      <c r="H10" s="105"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="109"/>
-      <c r="L10" s="110"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="43"/>
-      <c r="O10" s="109"/>
-      <c r="P10" s="110"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="115"/>
-      <c r="S10" s="116"/>
-      <c r="T10" s="117"/>
-      <c r="U10" s="118"/>
-      <c r="V10" s="115"/>
-      <c r="W10" s="7"/>
-      <c r="X10" s="181"/>
-      <c r="Y10" s="65"/>
-    </row>
-    <row r="11" spans="1:25" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="64"/>
-      <c r="B11" s="171"/>
-      <c r="C11" s="169"/>
-      <c r="D11" s="16" t="s">
-        <v>20</v>
       </c>
       <c r="E11" s="25">
         <v>45411</v>
@@ -2742,32 +4391,32 @@
       <c r="F11" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="104"/>
-      <c r="H11" s="105"/>
+      <c r="G11" s="98"/>
+      <c r="H11" s="99"/>
       <c r="I11" s="7"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="109"/>
-      <c r="L11" s="110"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="103"/>
+      <c r="L11" s="104"/>
       <c r="M11" s="7"/>
-      <c r="N11" s="43"/>
-      <c r="O11" s="109"/>
-      <c r="P11" s="110"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="103"/>
+      <c r="P11" s="104"/>
       <c r="Q11" s="7"/>
-      <c r="R11" s="115"/>
-      <c r="S11" s="116"/>
-      <c r="T11" s="117"/>
-      <c r="U11" s="118"/>
-      <c r="V11" s="115"/>
+      <c r="R11" s="107"/>
+      <c r="S11" s="108"/>
+      <c r="T11" s="109"/>
+      <c r="U11" s="110"/>
+      <c r="V11" s="107"/>
       <c r="W11" s="7"/>
-      <c r="X11" s="181"/>
-      <c r="Y11" s="65"/>
+      <c r="X11" s="154"/>
+      <c r="Y11" s="63"/>
     </row>
     <row r="12" spans="1:25" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="64"/>
-      <c r="B12" s="171"/>
-      <c r="C12" s="169"/>
+      <c r="A12" s="62"/>
+      <c r="B12" s="162"/>
+      <c r="C12" s="160"/>
       <c r="D12" s="16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12" s="25">
         <v>45411</v>
@@ -2775,1010 +4424,1530 @@
       <c r="F12" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="104"/>
-      <c r="H12" s="105"/>
+      <c r="G12" s="98"/>
+      <c r="H12" s="99"/>
       <c r="I12" s="7"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="109"/>
-      <c r="L12" s="110"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="103"/>
+      <c r="L12" s="104"/>
       <c r="M12" s="7"/>
-      <c r="N12" s="43"/>
-      <c r="O12" s="109"/>
-      <c r="P12" s="110"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="103"/>
+      <c r="P12" s="104"/>
       <c r="Q12" s="7"/>
-      <c r="R12" s="115"/>
-      <c r="S12" s="116"/>
-      <c r="T12" s="117"/>
-      <c r="U12" s="118"/>
-      <c r="V12" s="115"/>
+      <c r="R12" s="107"/>
+      <c r="S12" s="108"/>
+      <c r="T12" s="109"/>
+      <c r="U12" s="110"/>
+      <c r="V12" s="107"/>
       <c r="W12" s="7"/>
-      <c r="X12" s="181"/>
-      <c r="Y12" s="65"/>
+      <c r="X12" s="154"/>
+      <c r="Y12" s="63"/>
     </row>
     <row r="13" spans="1:25" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="64"/>
-      <c r="B13" s="171"/>
-      <c r="C13" s="170"/>
-      <c r="D13" s="17" t="s">
+      <c r="A13" s="62"/>
+      <c r="B13" s="162"/>
+      <c r="C13" s="160"/>
+      <c r="D13" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="25">
+        <v>45411</v>
+      </c>
+      <c r="F13" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="98"/>
+      <c r="H13" s="99"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="103"/>
+      <c r="L13" s="104"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="103"/>
+      <c r="P13" s="104"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="107"/>
+      <c r="S13" s="108"/>
+      <c r="T13" s="109"/>
+      <c r="U13" s="110"/>
+      <c r="V13" s="107"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="154"/>
+      <c r="Y13" s="63"/>
+    </row>
+    <row r="14" spans="1:25" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="62"/>
+      <c r="B14" s="162"/>
+      <c r="C14" s="161"/>
+      <c r="D14" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="26">
+      <c r="E14" s="26">
         <v>45411</v>
       </c>
-      <c r="F13" s="35" t="s">
+      <c r="F14" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="87"/>
-      <c r="H13" s="88"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="44"/>
-      <c r="O13" s="50"/>
-      <c r="P13" s="54"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="119"/>
-      <c r="S13" s="120"/>
-      <c r="T13" s="121"/>
-      <c r="U13" s="122"/>
-      <c r="V13" s="119"/>
-      <c r="W13" s="8"/>
-      <c r="X13" s="114"/>
-      <c r="Y13" s="65"/>
-    </row>
-    <row r="14" spans="1:25" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="64"/>
-      <c r="B14" s="171"/>
-      <c r="C14" s="168" t="s">
+      <c r="G14" s="81"/>
+      <c r="H14" s="82"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="43"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="53"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="111"/>
+      <c r="S14" s="112"/>
+      <c r="T14" s="113"/>
+      <c r="U14" s="114"/>
+      <c r="V14" s="111"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="106"/>
+      <c r="Y14" s="63"/>
+    </row>
+    <row r="15" spans="1:25" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="62"/>
+      <c r="B15" s="162"/>
+      <c r="C15" s="159" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D15" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27" t="s">
+      <c r="E15" s="27"/>
+      <c r="F15" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="G14" s="9"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="45"/>
-      <c r="O14" s="47"/>
-      <c r="P14" s="51"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="45"/>
-      <c r="S14" s="47"/>
-      <c r="T14" s="55"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="45"/>
-      <c r="W14" s="9"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="65"/>
-    </row>
-    <row r="15" spans="1:25" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="64"/>
-      <c r="B15" s="171"/>
-      <c r="C15" s="178"/>
-      <c r="D15" s="19" t="s">
+      <c r="G15" s="9"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="44"/>
+      <c r="O15" s="46"/>
+      <c r="P15" s="50"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="44"/>
+      <c r="S15" s="46"/>
+      <c r="T15" s="54"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="44"/>
+      <c r="W15" s="9"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="63"/>
+    </row>
+    <row r="16" spans="1:25" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="62"/>
+      <c r="B16" s="162"/>
+      <c r="C16" s="169"/>
+      <c r="D16" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28" t="s">
+      <c r="E16" s="28"/>
+      <c r="F16" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="52"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="46"/>
-      <c r="O15" s="48"/>
-      <c r="P15" s="52"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="46"/>
-      <c r="S15" s="48"/>
-      <c r="T15" s="56"/>
-      <c r="U15" s="10"/>
-      <c r="V15" s="46"/>
-      <c r="W15" s="10"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="65"/>
-    </row>
-    <row r="16" spans="1:25" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="64"/>
-      <c r="B16" s="171" t="s">
+      <c r="G16" s="10"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="51"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="45"/>
+      <c r="O16" s="47"/>
+      <c r="P16" s="51"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="45"/>
+      <c r="S16" s="47"/>
+      <c r="T16" s="55"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="45"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="63"/>
+    </row>
+    <row r="17" spans="1:25" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="62"/>
+      <c r="B17" s="162" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="37" t="s">
+      <c r="C17" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D17" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="29">
+      <c r="E17" s="29">
         <v>45362</v>
       </c>
-      <c r="F16" s="22" t="s">
+      <c r="F17" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="77"/>
-      <c r="H16" s="78"/>
-      <c r="I16" s="77"/>
-      <c r="J16" s="78"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="79"/>
-      <c r="M16" s="77"/>
-      <c r="N16" s="78"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="79"/>
-      <c r="Q16" s="77"/>
-      <c r="R16" s="78"/>
-      <c r="S16" s="22"/>
-      <c r="T16" s="80"/>
-      <c r="U16" s="77"/>
-      <c r="V16" s="78"/>
-      <c r="W16" s="111"/>
-      <c r="X16" s="124"/>
-      <c r="Y16" s="65"/>
-    </row>
-    <row r="17" spans="1:25" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="64"/>
-      <c r="B17" s="171"/>
-      <c r="C17" s="173" t="s">
+      <c r="G17" s="71"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="71"/>
+      <c r="J17" s="72"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="73"/>
+      <c r="M17" s="71"/>
+      <c r="N17" s="72"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="73"/>
+      <c r="Q17" s="71"/>
+      <c r="R17" s="72"/>
+      <c r="S17" s="22"/>
+      <c r="T17" s="74"/>
+      <c r="U17" s="71"/>
+      <c r="V17" s="72"/>
+      <c r="W17" s="170"/>
+      <c r="X17" s="171"/>
+      <c r="Y17" s="63"/>
+    </row>
+    <row r="18" spans="1:25" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="62"/>
+      <c r="B18" s="162"/>
+      <c r="C18" s="164" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D18" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E18" s="24">
         <v>45376</v>
       </c>
-      <c r="F17" s="34" t="s">
+      <c r="F18" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="82"/>
-      <c r="H17" s="83"/>
-      <c r="I17" s="82"/>
-      <c r="J17" s="83"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="84"/>
-      <c r="M17" s="82"/>
-      <c r="N17" s="83"/>
-      <c r="O17" s="34"/>
-      <c r="P17" s="84"/>
-      <c r="Q17" s="82"/>
-      <c r="R17" s="83"/>
-      <c r="S17" s="34"/>
-      <c r="T17" s="85"/>
-      <c r="U17" s="82"/>
-      <c r="V17" s="83"/>
-      <c r="W17" s="6"/>
-      <c r="X17" s="113"/>
-      <c r="Y17" s="65"/>
-    </row>
-    <row r="18" spans="1:25" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="64"/>
-      <c r="B18" s="171"/>
-      <c r="C18" s="174"/>
-      <c r="D18" s="17" t="s">
+      <c r="G18" s="76"/>
+      <c r="H18" s="77"/>
+      <c r="I18" s="76"/>
+      <c r="J18" s="77"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="78"/>
+      <c r="M18" s="76"/>
+      <c r="N18" s="77"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="78"/>
+      <c r="Q18" s="76"/>
+      <c r="R18" s="77"/>
+      <c r="S18" s="34"/>
+      <c r="T18" s="79"/>
+      <c r="U18" s="76"/>
+      <c r="V18" s="77"/>
+      <c r="W18" s="172"/>
+      <c r="X18" s="173"/>
+      <c r="Y18" s="63"/>
+    </row>
+    <row r="19" spans="1:25" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="62"/>
+      <c r="B19" s="162"/>
+      <c r="C19" s="165"/>
+      <c r="D19" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="26">
+      <c r="E19" s="26">
         <v>45390</v>
       </c>
-      <c r="F18" s="35" t="s">
+      <c r="F19" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="G18" s="87"/>
-      <c r="H18" s="88"/>
-      <c r="I18" s="87"/>
-      <c r="J18" s="88"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="89"/>
-      <c r="M18" s="87"/>
-      <c r="N18" s="88"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="89"/>
-      <c r="Q18" s="87"/>
-      <c r="R18" s="88"/>
-      <c r="S18" s="35"/>
-      <c r="T18" s="90"/>
-      <c r="U18" s="87"/>
-      <c r="V18" s="88"/>
-      <c r="W18" s="8"/>
-      <c r="X18" s="114"/>
-      <c r="Y18" s="65"/>
-    </row>
-    <row r="19" spans="1:25" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="64"/>
-      <c r="B19" s="171"/>
-      <c r="C19" s="18" t="s">
+      <c r="G19" s="81"/>
+      <c r="H19" s="82"/>
+      <c r="I19" s="81"/>
+      <c r="J19" s="82"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="83"/>
+      <c r="M19" s="81"/>
+      <c r="N19" s="82"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="83"/>
+      <c r="Q19" s="81"/>
+      <c r="R19" s="82"/>
+      <c r="S19" s="35"/>
+      <c r="T19" s="84"/>
+      <c r="U19" s="81"/>
+      <c r="V19" s="82"/>
+      <c r="W19" s="174"/>
+      <c r="X19" s="175"/>
+      <c r="Y19" s="63"/>
+    </row>
+    <row r="20" spans="1:25" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="62"/>
+      <c r="B20" s="162"/>
+      <c r="C20" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D20" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="30">
+      <c r="E20" s="30">
         <v>45390</v>
       </c>
-      <c r="F19" s="27" t="s">
+      <c r="F20" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="G19" s="91"/>
-      <c r="H19" s="92"/>
-      <c r="I19" s="91"/>
-      <c r="J19" s="92"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="93"/>
-      <c r="M19" s="91"/>
-      <c r="N19" s="92"/>
-      <c r="O19" s="27"/>
-      <c r="P19" s="93"/>
-      <c r="Q19" s="91"/>
-      <c r="R19" s="92"/>
-      <c r="S19" s="27"/>
-      <c r="T19" s="94"/>
-      <c r="U19" s="91"/>
-      <c r="V19" s="92"/>
-      <c r="W19" s="9"/>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="65"/>
-    </row>
-    <row r="20" spans="1:25" ht="17" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="64"/>
-      <c r="B20" s="171"/>
-      <c r="C20" s="173" t="s">
+      <c r="G20" s="85"/>
+      <c r="H20" s="86"/>
+      <c r="I20" s="85"/>
+      <c r="J20" s="86"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="87"/>
+      <c r="M20" s="85"/>
+      <c r="N20" s="86"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="87"/>
+      <c r="Q20" s="85"/>
+      <c r="R20" s="86"/>
+      <c r="S20" s="27"/>
+      <c r="T20" s="88"/>
+      <c r="U20" s="85"/>
+      <c r="V20" s="86"/>
+      <c r="W20" s="176"/>
+      <c r="X20" s="177"/>
+      <c r="Y20" s="63"/>
+    </row>
+    <row r="21" spans="1:25" ht="17" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="62"/>
+      <c r="B21" s="162"/>
+      <c r="C21" s="164" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D21" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="24">
+      <c r="E21" s="24">
         <v>45404</v>
       </c>
-      <c r="F20" s="34" t="s">
+      <c r="F21" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="G20" s="82"/>
-      <c r="H20" s="83"/>
-      <c r="I20" s="82"/>
-      <c r="J20" s="83"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="84"/>
-      <c r="M20" s="82"/>
-      <c r="N20" s="83"/>
-      <c r="O20" s="34"/>
-      <c r="P20" s="84"/>
-      <c r="Q20" s="82"/>
-      <c r="R20" s="83"/>
-      <c r="S20" s="34"/>
-      <c r="T20" s="85"/>
-      <c r="U20" s="82"/>
-      <c r="V20" s="83"/>
-      <c r="W20" s="6"/>
-      <c r="X20" s="113"/>
-      <c r="Y20" s="65"/>
-    </row>
-    <row r="21" spans="1:25" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="64"/>
-      <c r="B21" s="171"/>
-      <c r="C21" s="174"/>
-      <c r="D21" s="17" t="s">
+      <c r="G21" s="76"/>
+      <c r="H21" s="77"/>
+      <c r="I21" s="76"/>
+      <c r="J21" s="77"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="78"/>
+      <c r="M21" s="76"/>
+      <c r="N21" s="77"/>
+      <c r="O21" s="34"/>
+      <c r="P21" s="78"/>
+      <c r="Q21" s="76"/>
+      <c r="R21" s="77"/>
+      <c r="S21" s="34"/>
+      <c r="T21" s="79"/>
+      <c r="U21" s="76"/>
+      <c r="V21" s="77"/>
+      <c r="W21" s="172"/>
+      <c r="X21" s="173"/>
+      <c r="Y21" s="63"/>
+    </row>
+    <row r="22" spans="1:25" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="62"/>
+      <c r="B22" s="162"/>
+      <c r="C22" s="165"/>
+      <c r="D22" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E21" s="26">
+      <c r="E22" s="26">
         <v>45404</v>
       </c>
-      <c r="F21" s="35" t="s">
+      <c r="F22" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="G21" s="87"/>
-      <c r="H21" s="88"/>
-      <c r="I21" s="87"/>
-      <c r="J21" s="88"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="89"/>
-      <c r="M21" s="87"/>
-      <c r="N21" s="88"/>
-      <c r="O21" s="35"/>
-      <c r="P21" s="89"/>
-      <c r="Q21" s="87"/>
-      <c r="R21" s="88"/>
-      <c r="S21" s="35"/>
-      <c r="T21" s="90"/>
-      <c r="U21" s="87"/>
-      <c r="V21" s="88"/>
-      <c r="W21" s="8"/>
-      <c r="X21" s="114"/>
-      <c r="Y21" s="65"/>
-    </row>
-    <row r="22" spans="1:25" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="64"/>
-      <c r="B22" s="171"/>
-      <c r="C22" s="39" t="s">
+      <c r="G22" s="81"/>
+      <c r="H22" s="82"/>
+      <c r="I22" s="81"/>
+      <c r="J22" s="82"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="83"/>
+      <c r="M22" s="81"/>
+      <c r="N22" s="82"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="83"/>
+      <c r="Q22" s="81"/>
+      <c r="R22" s="82"/>
+      <c r="S22" s="35"/>
+      <c r="T22" s="84"/>
+      <c r="U22" s="81"/>
+      <c r="V22" s="82"/>
+      <c r="W22" s="174"/>
+      <c r="X22" s="175"/>
+      <c r="Y22" s="63"/>
+    </row>
+    <row r="23" spans="1:25" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="62"/>
+      <c r="B23" s="162"/>
+      <c r="C23" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="21" t="s">
+      <c r="D23" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="E22" s="31" t="s">
+      <c r="E23" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="F22" s="36" t="s">
+      <c r="F23" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="G22" s="95"/>
-      <c r="H22" s="96"/>
-      <c r="I22" s="95"/>
-      <c r="J22" s="96"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="97"/>
-      <c r="M22" s="95"/>
-      <c r="N22" s="96"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="97"/>
-      <c r="Q22" s="95"/>
-      <c r="R22" s="96"/>
-      <c r="S22" s="36"/>
-      <c r="T22" s="98"/>
-      <c r="U22" s="95"/>
-      <c r="V22" s="96"/>
-      <c r="W22" s="40"/>
-      <c r="X22" s="2"/>
-      <c r="Y22" s="65"/>
-    </row>
-    <row r="23" spans="1:25" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="64"/>
-      <c r="B23" s="172"/>
-      <c r="C23" s="18" t="s">
+      <c r="G23" s="89"/>
+      <c r="H23" s="90"/>
+      <c r="I23" s="89"/>
+      <c r="J23" s="90"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="91"/>
+      <c r="M23" s="89"/>
+      <c r="N23" s="90"/>
+      <c r="O23" s="36"/>
+      <c r="P23" s="91"/>
+      <c r="Q23" s="89"/>
+      <c r="R23" s="90"/>
+      <c r="S23" s="36"/>
+      <c r="T23" s="92"/>
+      <c r="U23" s="89"/>
+      <c r="V23" s="90"/>
+      <c r="W23" s="178"/>
+      <c r="X23" s="179"/>
+      <c r="Y23" s="63"/>
+    </row>
+    <row r="24" spans="1:25" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="62"/>
+      <c r="B24" s="163"/>
+      <c r="C24" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="D24" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="30" t="s">
+      <c r="E24" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="F23" s="27" t="s">
+      <c r="F24" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="G23" s="91"/>
-      <c r="H23" s="92"/>
-      <c r="I23" s="91"/>
-      <c r="J23" s="92"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="93"/>
-      <c r="M23" s="91"/>
-      <c r="N23" s="92"/>
-      <c r="O23" s="27"/>
-      <c r="P23" s="93"/>
-      <c r="Q23" s="91"/>
-      <c r="R23" s="92"/>
-      <c r="S23" s="27"/>
-      <c r="T23" s="94"/>
-      <c r="U23" s="91"/>
-      <c r="V23" s="92"/>
-      <c r="W23" s="9"/>
-      <c r="X23" s="3"/>
-      <c r="Y23" s="65"/>
-    </row>
-    <row r="24" spans="1:25" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="64"/>
-      <c r="B24" s="164" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" s="149" t="s">
-        <v>60</v>
-      </c>
-      <c r="D24" s="150"/>
-      <c r="E24" s="151">
+      <c r="G24" s="85"/>
+      <c r="H24" s="86"/>
+      <c r="I24" s="85"/>
+      <c r="J24" s="86"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="87"/>
+      <c r="M24" s="85"/>
+      <c r="N24" s="86"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="87"/>
+      <c r="Q24" s="85"/>
+      <c r="R24" s="86"/>
+      <c r="S24" s="27"/>
+      <c r="T24" s="88"/>
+      <c r="U24" s="85"/>
+      <c r="V24" s="86"/>
+      <c r="W24" s="176"/>
+      <c r="X24" s="177"/>
+      <c r="Y24" s="63"/>
+    </row>
+    <row r="25" spans="1:25" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="62"/>
+      <c r="B25" s="155" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="140" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="141"/>
+      <c r="E25" s="142">
         <v>45299</v>
       </c>
-      <c r="F24" s="152" t="s">
+      <c r="F25" s="143" t="s">
         <v>17</v>
       </c>
-      <c r="G24" s="153"/>
-      <c r="H24" s="154"/>
-      <c r="I24" s="154"/>
-      <c r="J24" s="154"/>
-      <c r="K24" s="155"/>
-      <c r="L24" s="153"/>
-      <c r="M24" s="154"/>
-      <c r="N24" s="154"/>
-      <c r="O24" s="155"/>
-      <c r="P24" s="153"/>
-      <c r="Q24" s="154"/>
-      <c r="R24" s="154"/>
-      <c r="S24" s="155"/>
-      <c r="T24" s="153"/>
-      <c r="U24" s="154"/>
-      <c r="V24" s="154"/>
-      <c r="W24" s="154"/>
-      <c r="X24" s="81"/>
-      <c r="Y24" s="65"/>
-    </row>
-    <row r="25" spans="1:25" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="64"/>
-      <c r="B25" s="164"/>
-      <c r="C25" s="140" t="s">
-        <v>61</v>
-      </c>
-      <c r="D25" s="140"/>
-      <c r="E25" s="140"/>
-      <c r="F25" s="141" t="s">
+      <c r="G25" s="144"/>
+      <c r="H25" s="145"/>
+      <c r="I25" s="145"/>
+      <c r="J25" s="145"/>
+      <c r="K25" s="146"/>
+      <c r="L25" s="144"/>
+      <c r="M25" s="145"/>
+      <c r="N25" s="145"/>
+      <c r="O25" s="146"/>
+      <c r="P25" s="144"/>
+      <c r="Q25" s="145"/>
+      <c r="R25" s="145"/>
+      <c r="S25" s="146"/>
+      <c r="T25" s="144"/>
+      <c r="U25" s="145"/>
+      <c r="V25" s="145"/>
+      <c r="W25" s="145"/>
+      <c r="X25" s="75"/>
+      <c r="Y25" s="63"/>
+    </row>
+    <row r="26" spans="1:25" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="62"/>
+      <c r="B26" s="155"/>
+      <c r="C26" s="131" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="131"/>
+      <c r="E26" s="131"/>
+      <c r="F26" s="132" t="s">
         <v>31</v>
       </c>
-      <c r="G25" s="142"/>
-      <c r="H25" s="143"/>
-      <c r="I25" s="143"/>
-      <c r="J25" s="143"/>
-      <c r="K25" s="144"/>
-      <c r="L25" s="142"/>
-      <c r="M25" s="143"/>
-      <c r="N25" s="143"/>
-      <c r="O25" s="144"/>
-      <c r="P25" s="142"/>
-      <c r="Q25" s="143"/>
-      <c r="R25" s="143"/>
-      <c r="S25" s="144"/>
-      <c r="T25" s="142"/>
-      <c r="U25" s="143"/>
-      <c r="V25" s="143"/>
-      <c r="W25" s="143"/>
-      <c r="X25" s="2"/>
-      <c r="Y25" s="65"/>
-    </row>
-    <row r="26" spans="1:25" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="64"/>
-      <c r="B26" s="164"/>
-      <c r="C26" s="145" t="s">
-        <v>62</v>
-      </c>
-      <c r="D26" s="145" t="s">
-        <v>64</v>
-      </c>
-      <c r="E26" s="145"/>
-      <c r="F26" s="136" t="s">
+      <c r="G26" s="133"/>
+      <c r="H26" s="134"/>
+      <c r="I26" s="134"/>
+      <c r="J26" s="134"/>
+      <c r="K26" s="135"/>
+      <c r="L26" s="133"/>
+      <c r="M26" s="134"/>
+      <c r="N26" s="134"/>
+      <c r="O26" s="135"/>
+      <c r="P26" s="133"/>
+      <c r="Q26" s="134"/>
+      <c r="R26" s="134"/>
+      <c r="S26" s="135"/>
+      <c r="T26" s="133"/>
+      <c r="U26" s="134"/>
+      <c r="V26" s="134"/>
+      <c r="W26" s="134"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="63"/>
+    </row>
+    <row r="27" spans="1:25" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="62"/>
+      <c r="B27" s="155"/>
+      <c r="C27" s="136" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="136" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" s="136"/>
+      <c r="F27" s="127" t="s">
         <v>31</v>
       </c>
-      <c r="G26" s="137"/>
-      <c r="H26" s="138"/>
-      <c r="I26" s="138"/>
-      <c r="J26" s="138"/>
-      <c r="K26" s="139"/>
-      <c r="L26" s="137"/>
-      <c r="M26" s="138"/>
-      <c r="N26" s="138"/>
-      <c r="O26" s="139"/>
-      <c r="P26" s="137"/>
-      <c r="Q26" s="146"/>
-      <c r="R26" s="146"/>
-      <c r="S26" s="147"/>
-      <c r="T26" s="148"/>
-      <c r="U26" s="146"/>
-      <c r="V26" s="146"/>
-      <c r="W26" s="146"/>
-      <c r="X26" s="123"/>
-      <c r="Y26" s="65"/>
-    </row>
-    <row r="27" spans="1:25" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="64"/>
-      <c r="B27" s="164"/>
-      <c r="C27" s="156" t="s">
-        <v>63</v>
-      </c>
-      <c r="D27" s="156"/>
-      <c r="E27" s="157"/>
-      <c r="F27" s="158" t="s">
+      <c r="G27" s="128"/>
+      <c r="H27" s="129"/>
+      <c r="I27" s="129"/>
+      <c r="J27" s="129"/>
+      <c r="K27" s="130"/>
+      <c r="L27" s="128"/>
+      <c r="M27" s="129"/>
+      <c r="N27" s="129"/>
+      <c r="O27" s="130"/>
+      <c r="P27" s="128"/>
+      <c r="Q27" s="137"/>
+      <c r="R27" s="137"/>
+      <c r="S27" s="138"/>
+      <c r="T27" s="139"/>
+      <c r="U27" s="137"/>
+      <c r="V27" s="137"/>
+      <c r="W27" s="137"/>
+      <c r="X27" s="115"/>
+      <c r="Y27" s="63"/>
+    </row>
+    <row r="28" spans="1:25" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="62"/>
+      <c r="B28" s="155"/>
+      <c r="C28" s="147" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" s="147"/>
+      <c r="E28" s="148"/>
+      <c r="F28" s="149" t="s">
         <v>32</v>
       </c>
-      <c r="G27" s="159"/>
-      <c r="H27" s="160"/>
-      <c r="I27" s="160"/>
-      <c r="J27" s="160"/>
-      <c r="K27" s="161"/>
-      <c r="L27" s="159"/>
-      <c r="M27" s="160"/>
-      <c r="N27" s="160"/>
-      <c r="O27" s="161"/>
-      <c r="P27" s="159"/>
-      <c r="Q27" s="160"/>
-      <c r="R27" s="160"/>
-      <c r="S27" s="161"/>
-      <c r="T27" s="159"/>
-      <c r="U27" s="160"/>
-      <c r="V27" s="160"/>
-      <c r="W27" s="160"/>
-      <c r="X27" s="162"/>
-      <c r="Y27" s="65"/>
-    </row>
-    <row r="28" spans="1:25" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="70"/>
-      <c r="C28" s="135"/>
-      <c r="D28" s="71"/>
-      <c r="E28" s="72"/>
-      <c r="F28" s="72"/>
-      <c r="G28" s="72"/>
-      <c r="H28" s="72"/>
-      <c r="I28" s="72"/>
-      <c r="J28" s="72"/>
-      <c r="K28" s="72"/>
-      <c r="L28" s="72"/>
-      <c r="M28" s="72"/>
-      <c r="N28" s="72"/>
-      <c r="O28" s="72"/>
-      <c r="P28" s="72"/>
-      <c r="Q28" s="72"/>
-      <c r="R28" s="72"/>
-      <c r="S28" s="72"/>
-      <c r="T28" s="72"/>
-      <c r="U28" s="72"/>
-      <c r="V28" s="72"/>
-      <c r="W28" s="72"/>
-      <c r="X28" s="72"/>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="C29" s="62"/>
+      <c r="G28" s="150"/>
+      <c r="H28" s="151"/>
+      <c r="I28" s="151"/>
+      <c r="J28" s="151"/>
+      <c r="K28" s="152"/>
+      <c r="L28" s="150"/>
+      <c r="M28" s="151"/>
+      <c r="N28" s="151"/>
+      <c r="O28" s="152"/>
+      <c r="P28" s="150"/>
+      <c r="Q28" s="151"/>
+      <c r="R28" s="151"/>
+      <c r="S28" s="152"/>
+      <c r="T28" s="150"/>
+      <c r="U28" s="151"/>
+      <c r="V28" s="151"/>
+      <c r="W28" s="180"/>
+      <c r="X28" s="181"/>
+      <c r="Y28" s="63"/>
+    </row>
+    <row r="29" spans="1:25" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="68"/>
+      <c r="C29" s="126"/>
+      <c r="D29" s="69"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="70"/>
+      <c r="H29" s="70"/>
+      <c r="I29" s="70"/>
+      <c r="J29" s="70"/>
+      <c r="K29" s="70"/>
+      <c r="L29" s="70"/>
+      <c r="M29" s="70"/>
+      <c r="N29" s="70"/>
+      <c r="O29" s="70"/>
+      <c r="P29" s="70"/>
+      <c r="Q29" s="70"/>
+      <c r="R29" s="70"/>
+      <c r="S29" s="70"/>
+      <c r="T29" s="70"/>
+      <c r="U29" s="70"/>
+      <c r="V29" s="70"/>
+      <c r="W29" s="70"/>
+      <c r="X29" s="70"/>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C30" s="61"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="C31" s="63"/>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="C32" s="63"/>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C33" s="63"/>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C34" s="61"/>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C35" s="63"/>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C36" s="63"/>
-    </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C37" s="57"/>
-    </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C38" s="57"/>
-    </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C39" s="57"/>
-    </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C40" s="57"/>
-    </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C41" s="57"/>
-    </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C42" s="57"/>
-    </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C43" s="57"/>
+    <row r="31" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="B31" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="60"/>
+    </row>
+    <row r="32" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="64"/>
+      <c r="C32" s="201"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="67"/>
+      <c r="H32" s="67"/>
+      <c r="I32" s="67"/>
+      <c r="J32" s="67"/>
+      <c r="K32" s="67"/>
+      <c r="L32" s="67"/>
+      <c r="M32" s="67"/>
+      <c r="N32" s="67"/>
+      <c r="O32" s="67"/>
+      <c r="P32" s="67"/>
+      <c r="Q32" s="67"/>
+      <c r="R32" s="67"/>
+      <c r="S32" s="67"/>
+      <c r="T32" s="67"/>
+      <c r="U32" s="67"/>
+      <c r="V32" s="67"/>
+      <c r="W32" s="67"/>
+      <c r="X32" s="67"/>
+    </row>
+    <row r="33" spans="1:25" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="62"/>
+      <c r="B33" s="218" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="219" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="227" t="s">
+        <v>2</v>
+      </c>
+      <c r="E33" s="227" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33" s="244" t="s">
+        <v>9</v>
+      </c>
+      <c r="G33" s="238" t="s">
+        <v>53</v>
+      </c>
+      <c r="H33" s="204"/>
+      <c r="I33" s="204"/>
+      <c r="J33" s="204"/>
+      <c r="K33" s="205"/>
+      <c r="L33" s="238" t="s">
+        <v>54</v>
+      </c>
+      <c r="M33" s="204"/>
+      <c r="N33" s="204"/>
+      <c r="O33" s="205"/>
+      <c r="P33" s="255" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q33" s="206"/>
+      <c r="R33" s="206"/>
+      <c r="S33" s="206"/>
+      <c r="T33" s="206"/>
+      <c r="U33" s="255" t="s">
+        <v>56</v>
+      </c>
+      <c r="V33" s="206"/>
+      <c r="W33" s="206"/>
+      <c r="X33" s="207"/>
+      <c r="Y33" s="63"/>
+    </row>
+    <row r="34" spans="1:25" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="62"/>
+      <c r="B34" s="210" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="220" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" s="228"/>
+      <c r="E34" s="232"/>
+      <c r="F34" s="246" t="s">
+        <v>32</v>
+      </c>
+      <c r="G34" s="240"/>
+      <c r="H34" s="188"/>
+      <c r="I34" s="191"/>
+      <c r="J34" s="188"/>
+      <c r="K34" s="251"/>
+      <c r="L34" s="188"/>
+      <c r="M34" s="191"/>
+      <c r="N34" s="188"/>
+      <c r="O34" s="251"/>
+      <c r="P34" s="188"/>
+      <c r="Q34" s="191"/>
+      <c r="R34" s="188"/>
+      <c r="S34" s="191"/>
+      <c r="T34" s="259"/>
+      <c r="U34" s="198"/>
+      <c r="V34" s="188"/>
+      <c r="W34" s="191"/>
+      <c r="X34" s="211"/>
+      <c r="Y34" s="63"/>
+    </row>
+    <row r="35" spans="1:25" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="62"/>
+      <c r="B35" s="210"/>
+      <c r="C35" s="221"/>
+      <c r="D35" s="229"/>
+      <c r="E35" s="233"/>
+      <c r="F35" s="247" t="s">
+        <v>32</v>
+      </c>
+      <c r="G35" s="241"/>
+      <c r="H35" s="185"/>
+      <c r="I35" s="192"/>
+      <c r="J35" s="185"/>
+      <c r="K35" s="252"/>
+      <c r="L35" s="185"/>
+      <c r="M35" s="192"/>
+      <c r="N35" s="185"/>
+      <c r="O35" s="252"/>
+      <c r="P35" s="185"/>
+      <c r="Q35" s="192"/>
+      <c r="R35" s="185"/>
+      <c r="S35" s="192"/>
+      <c r="T35" s="260"/>
+      <c r="U35" s="199"/>
+      <c r="V35" s="185"/>
+      <c r="W35" s="192"/>
+      <c r="X35" s="212"/>
+      <c r="Y35" s="63"/>
+    </row>
+    <row r="36" spans="1:25" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="62"/>
+      <c r="B36" s="210"/>
+      <c r="C36" s="222"/>
+      <c r="D36" s="230"/>
+      <c r="E36" s="234"/>
+      <c r="F36" s="248" t="s">
+        <v>32</v>
+      </c>
+      <c r="G36" s="242"/>
+      <c r="H36" s="189"/>
+      <c r="I36" s="193"/>
+      <c r="J36" s="189"/>
+      <c r="K36" s="253"/>
+      <c r="L36" s="189"/>
+      <c r="M36" s="193"/>
+      <c r="N36" s="189"/>
+      <c r="O36" s="253"/>
+      <c r="P36" s="189"/>
+      <c r="Q36" s="193"/>
+      <c r="R36" s="189"/>
+      <c r="S36" s="193"/>
+      <c r="T36" s="261"/>
+      <c r="U36" s="200"/>
+      <c r="V36" s="189"/>
+      <c r="W36" s="193"/>
+      <c r="X36" s="213"/>
+      <c r="Y36" s="63"/>
+    </row>
+    <row r="37" spans="1:25" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="62"/>
+      <c r="B37" s="210"/>
+      <c r="C37" s="220" t="s">
+        <v>60</v>
+      </c>
+      <c r="D37" s="228"/>
+      <c r="E37" s="232">
+        <v>45432</v>
+      </c>
+      <c r="F37" s="246" t="s">
+        <v>32</v>
+      </c>
+      <c r="G37" s="240"/>
+      <c r="H37" s="188"/>
+      <c r="I37" s="191"/>
+      <c r="J37" s="188"/>
+      <c r="K37" s="251"/>
+      <c r="L37" s="188"/>
+      <c r="M37" s="191"/>
+      <c r="N37" s="188"/>
+      <c r="O37" s="251"/>
+      <c r="P37" s="188"/>
+      <c r="Q37" s="191"/>
+      <c r="R37" s="188"/>
+      <c r="S37" s="191"/>
+      <c r="T37" s="259"/>
+      <c r="U37" s="198"/>
+      <c r="V37" s="188"/>
+      <c r="W37" s="191"/>
+      <c r="X37" s="211"/>
+      <c r="Y37" s="63"/>
+    </row>
+    <row r="38" spans="1:25" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="62"/>
+      <c r="B38" s="210"/>
+      <c r="C38" s="221"/>
+      <c r="D38" s="229"/>
+      <c r="E38" s="233"/>
+      <c r="F38" s="247" t="s">
+        <v>32</v>
+      </c>
+      <c r="G38" s="241"/>
+      <c r="H38" s="185"/>
+      <c r="I38" s="192"/>
+      <c r="J38" s="185"/>
+      <c r="K38" s="252"/>
+      <c r="L38" s="185"/>
+      <c r="M38" s="192"/>
+      <c r="N38" s="185"/>
+      <c r="O38" s="252"/>
+      <c r="P38" s="185"/>
+      <c r="Q38" s="192"/>
+      <c r="R38" s="186"/>
+      <c r="S38" s="195"/>
+      <c r="T38" s="262"/>
+      <c r="U38" s="256"/>
+      <c r="V38" s="186"/>
+      <c r="W38" s="195"/>
+      <c r="X38" s="212"/>
+      <c r="Y38" s="63"/>
+    </row>
+    <row r="39" spans="1:25" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="62"/>
+      <c r="B39" s="210"/>
+      <c r="C39" s="222"/>
+      <c r="D39" s="230"/>
+      <c r="E39" s="234"/>
+      <c r="F39" s="248" t="s">
+        <v>32</v>
+      </c>
+      <c r="G39" s="242"/>
+      <c r="H39" s="189"/>
+      <c r="I39" s="193"/>
+      <c r="J39" s="189"/>
+      <c r="K39" s="253"/>
+      <c r="L39" s="189"/>
+      <c r="M39" s="193"/>
+      <c r="N39" s="189"/>
+      <c r="O39" s="253"/>
+      <c r="P39" s="189"/>
+      <c r="Q39" s="193"/>
+      <c r="R39" s="194"/>
+      <c r="S39" s="196"/>
+      <c r="T39" s="263"/>
+      <c r="U39" s="257"/>
+      <c r="V39" s="194"/>
+      <c r="W39" s="196"/>
+      <c r="X39" s="213"/>
+      <c r="Y39" s="63"/>
+    </row>
+    <row r="40" spans="1:25" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="62"/>
+      <c r="B40" s="210"/>
+      <c r="C40" s="220" t="s">
+        <v>61</v>
+      </c>
+      <c r="D40" s="268"/>
+      <c r="E40" s="281"/>
+      <c r="F40" s="279" t="s">
+        <v>32</v>
+      </c>
+      <c r="G40" s="240"/>
+      <c r="H40" s="188"/>
+      <c r="I40" s="191"/>
+      <c r="J40" s="188"/>
+      <c r="K40" s="251"/>
+      <c r="L40" s="188"/>
+      <c r="M40" s="191"/>
+      <c r="N40" s="188"/>
+      <c r="O40" s="251"/>
+      <c r="P40" s="188"/>
+      <c r="Q40" s="191"/>
+      <c r="R40" s="188"/>
+      <c r="S40" s="191"/>
+      <c r="T40" s="259"/>
+      <c r="U40" s="198"/>
+      <c r="V40" s="188"/>
+      <c r="W40" s="191"/>
+      <c r="X40" s="211"/>
+      <c r="Y40" s="63"/>
+    </row>
+    <row r="41" spans="1:25" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="62"/>
+      <c r="B41" s="280"/>
+      <c r="C41" s="221"/>
+      <c r="D41" s="226"/>
+      <c r="E41" s="237"/>
+      <c r="F41" s="245" t="s">
+        <v>32</v>
+      </c>
+      <c r="G41" s="239"/>
+      <c r="H41" s="182"/>
+      <c r="I41" s="190"/>
+      <c r="J41" s="182"/>
+      <c r="K41" s="250"/>
+      <c r="L41" s="182"/>
+      <c r="M41" s="190"/>
+      <c r="N41" s="182"/>
+      <c r="O41" s="250"/>
+      <c r="P41" s="182"/>
+      <c r="Q41" s="190"/>
+      <c r="R41" s="182"/>
+      <c r="S41" s="190"/>
+      <c r="T41" s="258"/>
+      <c r="U41" s="197"/>
+      <c r="V41" s="182"/>
+      <c r="W41" s="190"/>
+      <c r="X41" s="209"/>
+      <c r="Y41" s="63"/>
+    </row>
+    <row r="42" spans="1:25" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="62"/>
+      <c r="B42" s="214"/>
+      <c r="C42" s="223"/>
+      <c r="D42" s="231"/>
+      <c r="E42" s="235"/>
+      <c r="F42" s="249" t="s">
+        <v>32</v>
+      </c>
+      <c r="G42" s="243"/>
+      <c r="H42" s="215"/>
+      <c r="I42" s="216"/>
+      <c r="J42" s="215"/>
+      <c r="K42" s="254"/>
+      <c r="L42" s="215"/>
+      <c r="M42" s="216"/>
+      <c r="N42" s="215"/>
+      <c r="O42" s="254"/>
+      <c r="P42" s="215"/>
+      <c r="Q42" s="216"/>
+      <c r="R42" s="215"/>
+      <c r="S42" s="216"/>
+      <c r="T42" s="264"/>
+      <c r="U42" s="236"/>
+      <c r="V42" s="215"/>
+      <c r="W42" s="216"/>
+      <c r="X42" s="217"/>
+      <c r="Y42" s="63"/>
+    </row>
+    <row r="43" spans="1:25" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="62"/>
+      <c r="B43" s="210" t="s">
+        <v>62</v>
+      </c>
+      <c r="C43" s="224" t="s">
+        <v>63</v>
+      </c>
+      <c r="D43" s="228"/>
+      <c r="E43" s="232"/>
+      <c r="F43" s="246" t="s">
+        <v>32</v>
+      </c>
+      <c r="G43" s="240"/>
+      <c r="H43" s="188"/>
+      <c r="I43" s="191"/>
+      <c r="J43" s="188"/>
+      <c r="K43" s="251"/>
+      <c r="L43" s="188"/>
+      <c r="M43" s="191"/>
+      <c r="N43" s="188"/>
+      <c r="O43" s="251"/>
+      <c r="P43" s="188"/>
+      <c r="Q43" s="191"/>
+      <c r="R43" s="188"/>
+      <c r="S43" s="191"/>
+      <c r="T43" s="259"/>
+      <c r="U43" s="198"/>
+      <c r="V43" s="188"/>
+      <c r="W43" s="191"/>
+      <c r="X43" s="211"/>
+      <c r="Y43" s="63"/>
+    </row>
+    <row r="44" spans="1:25" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="62"/>
+      <c r="B44" s="210"/>
+      <c r="C44" s="221"/>
+      <c r="D44" s="291"/>
+      <c r="E44" s="292"/>
+      <c r="F44" s="293" t="s">
+        <v>32</v>
+      </c>
+      <c r="G44" s="294"/>
+      <c r="H44" s="184"/>
+      <c r="I44" s="295"/>
+      <c r="J44" s="184"/>
+      <c r="K44" s="183"/>
+      <c r="L44" s="184"/>
+      <c r="M44" s="295"/>
+      <c r="N44" s="184"/>
+      <c r="O44" s="183"/>
+      <c r="P44" s="184"/>
+      <c r="Q44" s="295"/>
+      <c r="R44" s="184"/>
+      <c r="S44" s="295"/>
+      <c r="T44" s="296"/>
+      <c r="U44" s="297"/>
+      <c r="V44" s="184"/>
+      <c r="W44" s="295"/>
+      <c r="X44" s="298"/>
+      <c r="Y44" s="63"/>
+    </row>
+    <row r="45" spans="1:25" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="62"/>
+      <c r="B45" s="210"/>
+      <c r="C45" s="225"/>
+      <c r="D45" s="283"/>
+      <c r="E45" s="284"/>
+      <c r="F45" s="285" t="s">
+        <v>32</v>
+      </c>
+      <c r="G45" s="286"/>
+      <c r="H45" s="202"/>
+      <c r="I45" s="203"/>
+      <c r="J45" s="202"/>
+      <c r="K45" s="287"/>
+      <c r="L45" s="202"/>
+      <c r="M45" s="203"/>
+      <c r="N45" s="202"/>
+      <c r="O45" s="287"/>
+      <c r="P45" s="202"/>
+      <c r="Q45" s="203"/>
+      <c r="R45" s="202"/>
+      <c r="S45" s="203"/>
+      <c r="T45" s="288"/>
+      <c r="U45" s="289"/>
+      <c r="V45" s="202"/>
+      <c r="W45" s="203"/>
+      <c r="X45" s="290"/>
+      <c r="Y45" s="63"/>
+    </row>
+    <row r="46" spans="1:25" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="62"/>
+      <c r="B46" s="210"/>
+      <c r="C46" s="224"/>
+      <c r="D46" s="228"/>
+      <c r="E46" s="232"/>
+      <c r="F46" s="246" t="s">
+        <v>32</v>
+      </c>
+      <c r="G46" s="240"/>
+      <c r="H46" s="188"/>
+      <c r="I46" s="191"/>
+      <c r="J46" s="188"/>
+      <c r="K46" s="251"/>
+      <c r="L46" s="188"/>
+      <c r="M46" s="191"/>
+      <c r="N46" s="188"/>
+      <c r="O46" s="251"/>
+      <c r="P46" s="188"/>
+      <c r="Q46" s="191"/>
+      <c r="R46" s="188"/>
+      <c r="S46" s="191"/>
+      <c r="T46" s="259"/>
+      <c r="U46" s="198"/>
+      <c r="V46" s="188"/>
+      <c r="W46" s="191"/>
+      <c r="X46" s="211"/>
+      <c r="Y46" s="63"/>
+    </row>
+    <row r="47" spans="1:25" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="62"/>
+      <c r="B47" s="210"/>
+      <c r="C47" s="221"/>
+      <c r="D47" s="291"/>
+      <c r="E47" s="292"/>
+      <c r="F47" s="293" t="s">
+        <v>32</v>
+      </c>
+      <c r="G47" s="294"/>
+      <c r="H47" s="184"/>
+      <c r="I47" s="295"/>
+      <c r="J47" s="184"/>
+      <c r="K47" s="183"/>
+      <c r="L47" s="184"/>
+      <c r="M47" s="295"/>
+      <c r="N47" s="184"/>
+      <c r="O47" s="183"/>
+      <c r="P47" s="184"/>
+      <c r="Q47" s="295"/>
+      <c r="R47" s="184"/>
+      <c r="S47" s="295"/>
+      <c r="T47" s="296"/>
+      <c r="U47" s="297"/>
+      <c r="V47" s="184"/>
+      <c r="W47" s="295"/>
+      <c r="X47" s="298"/>
+      <c r="Y47" s="63"/>
+    </row>
+    <row r="48" spans="1:25" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="62"/>
+      <c r="B48" s="210"/>
+      <c r="C48" s="225"/>
+      <c r="D48" s="283"/>
+      <c r="E48" s="284"/>
+      <c r="F48" s="285" t="s">
+        <v>32</v>
+      </c>
+      <c r="G48" s="286"/>
+      <c r="H48" s="202"/>
+      <c r="I48" s="203"/>
+      <c r="J48" s="202"/>
+      <c r="K48" s="287"/>
+      <c r="L48" s="202"/>
+      <c r="M48" s="203"/>
+      <c r="N48" s="202"/>
+      <c r="O48" s="287"/>
+      <c r="P48" s="202"/>
+      <c r="Q48" s="203"/>
+      <c r="R48" s="202"/>
+      <c r="S48" s="203"/>
+      <c r="T48" s="288"/>
+      <c r="U48" s="289"/>
+      <c r="V48" s="202"/>
+      <c r="W48" s="203"/>
+      <c r="X48" s="290"/>
+      <c r="Y48" s="63"/>
+    </row>
+    <row r="49" spans="1:25" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="62"/>
+      <c r="B49" s="210"/>
+      <c r="C49" s="265"/>
+      <c r="D49" s="268"/>
+      <c r="E49" s="278"/>
+      <c r="F49" s="279" t="s">
+        <v>32</v>
+      </c>
+      <c r="G49" s="240"/>
+      <c r="H49" s="188"/>
+      <c r="I49" s="191"/>
+      <c r="J49" s="188"/>
+      <c r="K49" s="251"/>
+      <c r="L49" s="188"/>
+      <c r="M49" s="191"/>
+      <c r="N49" s="188"/>
+      <c r="O49" s="251"/>
+      <c r="P49" s="188"/>
+      <c r="Q49" s="191"/>
+      <c r="R49" s="188"/>
+      <c r="S49" s="191"/>
+      <c r="T49" s="259"/>
+      <c r="U49" s="198"/>
+      <c r="V49" s="188"/>
+      <c r="W49" s="191"/>
+      <c r="X49" s="211"/>
+      <c r="Y49" s="63"/>
+    </row>
+    <row r="50" spans="1:25" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="62"/>
+      <c r="B50" s="280"/>
+      <c r="C50" s="282"/>
+      <c r="D50" s="291"/>
+      <c r="E50" s="292"/>
+      <c r="F50" s="293" t="s">
+        <v>32</v>
+      </c>
+      <c r="G50" s="294"/>
+      <c r="H50" s="184"/>
+      <c r="I50" s="295"/>
+      <c r="J50" s="184"/>
+      <c r="K50" s="183"/>
+      <c r="L50" s="184"/>
+      <c r="M50" s="295"/>
+      <c r="N50" s="184"/>
+      <c r="O50" s="183"/>
+      <c r="P50" s="184"/>
+      <c r="Q50" s="295"/>
+      <c r="R50" s="184"/>
+      <c r="S50" s="295"/>
+      <c r="T50" s="296"/>
+      <c r="U50" s="297"/>
+      <c r="V50" s="184"/>
+      <c r="W50" s="295"/>
+      <c r="X50" s="298"/>
+      <c r="Y50" s="63"/>
+    </row>
+    <row r="51" spans="1:25" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="62"/>
+      <c r="B51" s="214"/>
+      <c r="C51" s="266"/>
+      <c r="D51" s="267"/>
+      <c r="E51" s="269"/>
+      <c r="F51" s="270" t="s">
+        <v>32</v>
+      </c>
+      <c r="G51" s="271"/>
+      <c r="H51" s="272"/>
+      <c r="I51" s="273"/>
+      <c r="J51" s="272"/>
+      <c r="K51" s="274"/>
+      <c r="L51" s="272"/>
+      <c r="M51" s="273"/>
+      <c r="N51" s="272"/>
+      <c r="O51" s="274"/>
+      <c r="P51" s="272"/>
+      <c r="Q51" s="273"/>
+      <c r="R51" s="272"/>
+      <c r="S51" s="273"/>
+      <c r="T51" s="275"/>
+      <c r="U51" s="276"/>
+      <c r="V51" s="272"/>
+      <c r="W51" s="273"/>
+      <c r="X51" s="277"/>
+      <c r="Y51" s="63"/>
+    </row>
+    <row r="52" spans="1:25" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="62"/>
+      <c r="B52" s="208" t="s">
+        <v>64</v>
+      </c>
+      <c r="C52" s="314" t="s">
+        <v>65</v>
+      </c>
+      <c r="D52" s="301"/>
+      <c r="E52" s="302"/>
+      <c r="F52" s="303" t="s">
+        <v>32</v>
+      </c>
+      <c r="G52" s="304"/>
+      <c r="H52" s="305"/>
+      <c r="I52" s="306"/>
+      <c r="J52" s="305"/>
+      <c r="K52" s="307"/>
+      <c r="L52" s="305"/>
+      <c r="M52" s="306"/>
+      <c r="N52" s="305"/>
+      <c r="O52" s="307"/>
+      <c r="P52" s="305"/>
+      <c r="Q52" s="306"/>
+      <c r="R52" s="305"/>
+      <c r="S52" s="306"/>
+      <c r="T52" s="308"/>
+      <c r="U52" s="309"/>
+      <c r="V52" s="305"/>
+      <c r="W52" s="306"/>
+      <c r="X52" s="310"/>
+      <c r="Y52" s="63"/>
+    </row>
+    <row r="53" spans="1:25" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="62"/>
+      <c r="B53" s="299"/>
+      <c r="C53" s="282"/>
+      <c r="D53" s="311"/>
+      <c r="E53" s="292"/>
+      <c r="F53" s="293" t="s">
+        <v>32</v>
+      </c>
+      <c r="G53" s="294"/>
+      <c r="H53" s="184"/>
+      <c r="I53" s="295"/>
+      <c r="J53" s="184"/>
+      <c r="K53" s="183"/>
+      <c r="L53" s="184"/>
+      <c r="M53" s="295"/>
+      <c r="N53" s="184"/>
+      <c r="O53" s="183"/>
+      <c r="P53" s="184"/>
+      <c r="Q53" s="295"/>
+      <c r="R53" s="184"/>
+      <c r="S53" s="295"/>
+      <c r="T53" s="296"/>
+      <c r="U53" s="297"/>
+      <c r="V53" s="184"/>
+      <c r="W53" s="295"/>
+      <c r="X53" s="298"/>
+      <c r="Y53" s="63"/>
+    </row>
+    <row r="54" spans="1:25" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="62"/>
+      <c r="B54" s="299"/>
+      <c r="C54" s="315"/>
+      <c r="D54" s="312"/>
+      <c r="E54" s="284"/>
+      <c r="F54" s="285" t="s">
+        <v>32</v>
+      </c>
+      <c r="G54" s="286"/>
+      <c r="H54" s="202"/>
+      <c r="I54" s="203"/>
+      <c r="J54" s="202"/>
+      <c r="K54" s="287"/>
+      <c r="L54" s="202"/>
+      <c r="M54" s="203"/>
+      <c r="N54" s="202"/>
+      <c r="O54" s="287"/>
+      <c r="P54" s="202"/>
+      <c r="Q54" s="203"/>
+      <c r="R54" s="202"/>
+      <c r="S54" s="203"/>
+      <c r="T54" s="288"/>
+      <c r="U54" s="289"/>
+      <c r="V54" s="202"/>
+      <c r="W54" s="203"/>
+      <c r="X54" s="290"/>
+      <c r="Y54" s="63"/>
+    </row>
+    <row r="55" spans="1:25" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="62"/>
+      <c r="B55" s="299"/>
+      <c r="C55" s="265" t="s">
+        <v>66</v>
+      </c>
+      <c r="D55" s="313" t="s">
+        <v>67</v>
+      </c>
+      <c r="E55" s="278"/>
+      <c r="F55" s="279" t="s">
+        <v>32</v>
+      </c>
+      <c r="G55" s="240"/>
+      <c r="H55" s="188"/>
+      <c r="I55" s="191"/>
+      <c r="J55" s="188"/>
+      <c r="K55" s="251"/>
+      <c r="L55" s="188"/>
+      <c r="M55" s="191"/>
+      <c r="N55" s="188"/>
+      <c r="O55" s="251"/>
+      <c r="P55" s="188"/>
+      <c r="Q55" s="191"/>
+      <c r="R55" s="188"/>
+      <c r="S55" s="191"/>
+      <c r="T55" s="259"/>
+      <c r="U55" s="198"/>
+      <c r="V55" s="188"/>
+      <c r="W55" s="191"/>
+      <c r="X55" s="211"/>
+      <c r="Y55" s="63"/>
+    </row>
+    <row r="56" spans="1:25" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="62"/>
+      <c r="B56" s="299"/>
+      <c r="C56" s="282"/>
+      <c r="D56" s="311"/>
+      <c r="E56" s="292"/>
+      <c r="F56" s="293" t="s">
+        <v>32</v>
+      </c>
+      <c r="G56" s="294"/>
+      <c r="H56" s="184"/>
+      <c r="I56" s="295"/>
+      <c r="J56" s="184"/>
+      <c r="K56" s="183"/>
+      <c r="L56" s="184"/>
+      <c r="M56" s="295"/>
+      <c r="N56" s="184"/>
+      <c r="O56" s="183"/>
+      <c r="P56" s="184"/>
+      <c r="Q56" s="295"/>
+      <c r="R56" s="184"/>
+      <c r="S56" s="295"/>
+      <c r="T56" s="296"/>
+      <c r="U56" s="297"/>
+      <c r="V56" s="184"/>
+      <c r="W56" s="295"/>
+      <c r="X56" s="298"/>
+      <c r="Y56" s="63"/>
+    </row>
+    <row r="57" spans="1:25" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="62"/>
+      <c r="B57" s="299"/>
+      <c r="C57" s="315"/>
+      <c r="D57" s="312"/>
+      <c r="E57" s="284"/>
+      <c r="F57" s="285" t="s">
+        <v>32</v>
+      </c>
+      <c r="G57" s="286"/>
+      <c r="H57" s="202"/>
+      <c r="I57" s="203"/>
+      <c r="J57" s="202"/>
+      <c r="K57" s="287"/>
+      <c r="L57" s="202"/>
+      <c r="M57" s="203"/>
+      <c r="N57" s="202"/>
+      <c r="O57" s="287"/>
+      <c r="P57" s="202"/>
+      <c r="Q57" s="203"/>
+      <c r="R57" s="202"/>
+      <c r="S57" s="203"/>
+      <c r="T57" s="288"/>
+      <c r="U57" s="289"/>
+      <c r="V57" s="202"/>
+      <c r="W57" s="203"/>
+      <c r="X57" s="290"/>
+      <c r="Y57" s="63"/>
+    </row>
+    <row r="58" spans="1:25" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="62"/>
+      <c r="B58" s="299"/>
+      <c r="C58" s="265"/>
+      <c r="D58" s="311"/>
+      <c r="E58" s="292"/>
+      <c r="F58" s="293" t="s">
+        <v>32</v>
+      </c>
+      <c r="G58" s="294"/>
+      <c r="H58" s="184"/>
+      <c r="I58" s="295"/>
+      <c r="J58" s="184"/>
+      <c r="K58" s="183"/>
+      <c r="L58" s="184"/>
+      <c r="M58" s="295"/>
+      <c r="N58" s="184"/>
+      <c r="O58" s="183"/>
+      <c r="P58" s="184"/>
+      <c r="Q58" s="295"/>
+      <c r="R58" s="184"/>
+      <c r="S58" s="295"/>
+      <c r="T58" s="296"/>
+      <c r="U58" s="297"/>
+      <c r="V58" s="184"/>
+      <c r="W58" s="295"/>
+      <c r="X58" s="298"/>
+      <c r="Y58" s="63"/>
+    </row>
+    <row r="59" spans="1:25" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="62"/>
+      <c r="B59" s="210"/>
+      <c r="C59" s="282"/>
+      <c r="D59" s="300"/>
+      <c r="E59" s="300"/>
+      <c r="F59" s="293" t="s">
+        <v>32</v>
+      </c>
+      <c r="G59" s="294"/>
+      <c r="H59" s="184"/>
+      <c r="I59" s="295"/>
+      <c r="J59" s="184"/>
+      <c r="K59" s="183"/>
+      <c r="L59" s="184"/>
+      <c r="M59" s="295"/>
+      <c r="N59" s="184"/>
+      <c r="O59" s="183"/>
+      <c r="P59" s="184"/>
+      <c r="Q59" s="295"/>
+      <c r="R59" s="184"/>
+      <c r="S59" s="295"/>
+      <c r="T59" s="296"/>
+      <c r="U59" s="297"/>
+      <c r="V59" s="184"/>
+      <c r="W59" s="295"/>
+      <c r="X59" s="298"/>
+      <c r="Y59" s="63"/>
+    </row>
+    <row r="60" spans="1:25" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="62"/>
+      <c r="B60" s="214"/>
+      <c r="C60" s="266"/>
+      <c r="D60" s="267"/>
+      <c r="E60" s="269"/>
+      <c r="F60" s="270" t="s">
+        <v>32</v>
+      </c>
+      <c r="G60" s="271"/>
+      <c r="H60" s="272"/>
+      <c r="I60" s="273"/>
+      <c r="J60" s="272"/>
+      <c r="K60" s="274"/>
+      <c r="L60" s="272"/>
+      <c r="M60" s="273"/>
+      <c r="N60" s="272"/>
+      <c r="O60" s="274"/>
+      <c r="P60" s="272"/>
+      <c r="Q60" s="273"/>
+      <c r="R60" s="272"/>
+      <c r="S60" s="273"/>
+      <c r="T60" s="275"/>
+      <c r="U60" s="276"/>
+      <c r="V60" s="272"/>
+      <c r="W60" s="273"/>
+      <c r="X60" s="277"/>
+      <c r="Y60" s="63"/>
+    </row>
+    <row r="61" spans="1:25" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="68"/>
+      <c r="C61" s="187"/>
+      <c r="D61" s="69"/>
+      <c r="E61" s="70"/>
+      <c r="F61" s="70"/>
+      <c r="G61" s="70"/>
+      <c r="H61" s="70"/>
+      <c r="I61" s="70"/>
+      <c r="J61" s="70"/>
+      <c r="K61" s="70"/>
+      <c r="L61" s="70"/>
+      <c r="M61" s="70"/>
+      <c r="N61" s="70"/>
+      <c r="O61" s="70"/>
+      <c r="P61" s="70"/>
+      <c r="Q61" s="70"/>
+      <c r="R61" s="70"/>
+      <c r="S61" s="70"/>
+      <c r="T61" s="70"/>
+      <c r="U61" s="70"/>
+      <c r="V61" s="70"/>
+      <c r="W61" s="70"/>
+      <c r="X61" s="70"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="T2:X2"/>
-    <mergeCell ref="C5:C8"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="B16:B23"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="B3:B15"/>
-    <mergeCell ref="C14:C15"/>
+  <mergeCells count="28">
+    <mergeCell ref="U33:X33"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="C58:C60"/>
+    <mergeCell ref="B43:B51"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="B52:B60"/>
+    <mergeCell ref="P33:T33"/>
+    <mergeCell ref="G33:K33"/>
+    <mergeCell ref="L33:O33"/>
+    <mergeCell ref="B34:B42"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="P3:S3"/>
+    <mergeCell ref="T3:X3"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C10:C14"/>
+    <mergeCell ref="B17:B24"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="B4:B16"/>
+    <mergeCell ref="C15:C16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4577230-2A17-3640-AA37-745D91B59C8A}">
-  <dimension ref="A1:W11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="23" width="2.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A1" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="73" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="73" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="73" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="73" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="179" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="179"/>
-      <c r="H1" s="179"/>
-      <c r="I1" s="179"/>
-      <c r="J1" s="179"/>
-      <c r="K1" s="179" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="179"/>
-      <c r="M1" s="179"/>
-      <c r="N1" s="179"/>
-      <c r="O1" s="179" t="s">
-        <v>6</v>
-      </c>
-      <c r="P1" s="179"/>
-      <c r="Q1" s="179"/>
-      <c r="R1" s="179"/>
-      <c r="S1" s="179" t="s">
-        <v>7</v>
-      </c>
-      <c r="T1" s="179"/>
-      <c r="U1" s="179"/>
-      <c r="V1" s="179"/>
-      <c r="W1" s="179"/>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A2" s="179" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="180" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="74" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="75">
-        <v>45313</v>
-      </c>
-      <c r="E2" s="74" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="73"/>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="73"/>
-      <c r="R2" s="73"/>
-      <c r="S2" s="73"/>
-      <c r="T2" s="73"/>
-      <c r="U2" s="73"/>
-      <c r="V2" s="73"/>
-      <c r="W2" s="73"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A3" s="179"/>
-      <c r="B3" s="180"/>
-      <c r="C3" s="74" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="75">
-        <v>45313</v>
-      </c>
-      <c r="E3" s="74" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="73"/>
-      <c r="W3" s="73"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A4" s="179"/>
-      <c r="B4" s="180"/>
-      <c r="C4" s="74" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="75">
-        <v>45313</v>
-      </c>
-      <c r="E4" s="74" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="73"/>
-      <c r="S4" s="73"/>
-      <c r="T4" s="73"/>
-      <c r="U4" s="73"/>
-      <c r="V4" s="73"/>
-      <c r="W4" s="73"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A5" s="179"/>
-      <c r="B5" s="180"/>
-      <c r="C5" s="74" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="75">
-        <v>45313</v>
-      </c>
-      <c r="E5" s="74" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
-      <c r="L5" s="73"/>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="73"/>
-      <c r="T5" s="73"/>
-      <c r="U5" s="73"/>
-      <c r="V5" s="73"/>
-      <c r="W5" s="73"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A6" s="179"/>
-      <c r="B6" s="180" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="74" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="75">
-        <v>45313</v>
-      </c>
-      <c r="E6" s="74" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="76"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
-      <c r="L6" s="73"/>
-      <c r="M6" s="73"/>
-      <c r="N6" s="73"/>
-      <c r="O6" s="73"/>
-      <c r="P6" s="73"/>
-      <c r="Q6" s="73"/>
-      <c r="R6" s="73"/>
-      <c r="S6" s="73"/>
-      <c r="T6" s="73"/>
-      <c r="U6" s="73"/>
-      <c r="V6" s="73"/>
-      <c r="W6" s="73"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="180"/>
-      <c r="C7" s="74" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="75">
-        <v>45313</v>
-      </c>
-      <c r="E7" s="74" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="76"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="76"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
-      <c r="L7" s="73"/>
-      <c r="M7" s="73"/>
-      <c r="N7" s="73"/>
-      <c r="O7" s="73"/>
-      <c r="P7" s="73"/>
-      <c r="Q7" s="73"/>
-      <c r="R7" s="73"/>
-      <c r="S7" s="73"/>
-      <c r="T7" s="73"/>
-      <c r="U7" s="73"/>
-      <c r="V7" s="73"/>
-      <c r="W7" s="73"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A8" s="179"/>
-      <c r="B8" s="180" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="74" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="75">
-        <v>45313</v>
-      </c>
-      <c r="E8" s="74" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="76"/>
-      <c r="G8" s="76"/>
-      <c r="H8" s="76"/>
-      <c r="I8" s="73"/>
-      <c r="J8" s="73"/>
-      <c r="K8" s="73"/>
-      <c r="L8" s="73"/>
-      <c r="M8" s="73"/>
-      <c r="N8" s="73"/>
-      <c r="O8" s="73"/>
-      <c r="P8" s="73"/>
-      <c r="Q8" s="73"/>
-      <c r="R8" s="73"/>
-      <c r="S8" s="73"/>
-      <c r="T8" s="73"/>
-      <c r="U8" s="73"/>
-      <c r="V8" s="73"/>
-      <c r="W8" s="73"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A9" s="179"/>
-      <c r="B9" s="180"/>
-      <c r="C9" s="74" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="75">
-        <v>45313</v>
-      </c>
-      <c r="E9" s="74" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="76"/>
-      <c r="G9" s="76"/>
-      <c r="H9" s="76"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="73"/>
-      <c r="L9" s="73"/>
-      <c r="M9" s="73"/>
-      <c r="N9" s="73"/>
-      <c r="O9" s="73"/>
-      <c r="P9" s="73"/>
-      <c r="Q9" s="73"/>
-      <c r="R9" s="73"/>
-      <c r="S9" s="73"/>
-      <c r="T9" s="73"/>
-      <c r="U9" s="73"/>
-      <c r="V9" s="73"/>
-      <c r="W9" s="73"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A10" s="179"/>
-      <c r="B10" s="180"/>
-      <c r="C10" s="74" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="75">
-        <v>45313</v>
-      </c>
-      <c r="E10" s="74" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="76"/>
-      <c r="G10" s="76"/>
-      <c r="H10" s="76"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
-      <c r="N10" s="73"/>
-      <c r="O10" s="73"/>
-      <c r="P10" s="73"/>
-      <c r="Q10" s="73"/>
-      <c r="R10" s="73"/>
-      <c r="S10" s="73"/>
-      <c r="T10" s="73"/>
-      <c r="U10" s="73"/>
-      <c r="V10" s="73"/>
-      <c r="W10" s="73"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A11" s="179"/>
-      <c r="B11" s="180"/>
-      <c r="C11" s="74" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="75">
-        <v>45313</v>
-      </c>
-      <c r="E11" s="74" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="76"/>
-      <c r="G11" s="76"/>
-      <c r="H11" s="76"/>
-      <c r="I11" s="73"/>
-      <c r="J11" s="73"/>
-      <c r="K11" s="73"/>
-      <c r="L11" s="73"/>
-      <c r="M11" s="73"/>
-      <c r="N11" s="73"/>
-      <c r="O11" s="73"/>
-      <c r="P11" s="73"/>
-      <c r="Q11" s="73"/>
-      <c r="R11" s="73"/>
-      <c r="S11" s="73"/>
-      <c r="T11" s="73"/>
-      <c r="U11" s="73"/>
-      <c r="V11" s="73"/>
-      <c r="W11" s="73"/>
-    </row>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="S1:W1"/>
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B11"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>